--- a/paper/materials for appendix.xlsx
+++ b/paper/materials for appendix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36720" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="336">
   <si>
     <t>The finalists in the tennis championship were ranked \textbf{first} and \textbf{ninety-eighth} in the world prior to the tournament.</t>
   </si>
@@ -776,6 +776,258 @@
   </si>
   <si>
     <t>silver</t>
+  </si>
+  <si>
+    <t>Did he defend his behavior?</t>
+  </si>
+  <si>
+    <t>Do the lumberjacks hate the bar?</t>
+  </si>
+  <si>
+    <t>Did Jim like to eat elderberries?</t>
+  </si>
+  <si>
+    <t>Does my cousin have a new toy?</t>
+  </si>
+  <si>
+    <t>Did the dentist recommend eating candy?</t>
+  </si>
+  <si>
+    <t>Were there elephants at the zoo?</t>
+  </si>
+  <si>
+    <t>Did the engineer specialize in destroying things?</t>
+  </si>
+  <si>
+    <t>Did I grow up in a small town?</t>
+  </si>
+  <si>
+    <t>Did I eat berries this morning?</t>
+  </si>
+  <si>
+    <t>Were there blankets in the box?</t>
+  </si>
+  <si>
+    <t>Did I hear about fires from a policeman?</t>
+  </si>
+  <si>
+    <t>Did the wizards ride broomsticks frequently?</t>
+  </si>
+  <si>
+    <t>Did I go to a party?</t>
+  </si>
+  <si>
+    <t>Did the class go to the state fair?</t>
+  </si>
+  <si>
+    <t>Was the field behind the house?</t>
+  </si>
+  <si>
+    <t>Did he have uncles?</t>
+  </si>
+  <si>
+    <t>Did Kim like the drink?</t>
+  </si>
+  <si>
+    <t>Did the dictator survive?</t>
+  </si>
+  <si>
+    <t>Did I discuss something with my boss?</t>
+  </si>
+  <si>
+    <t>Did the doctor talk about flu symptoms?</t>
+  </si>
+  <si>
+    <t>Was Luke my best friend?</t>
+  </si>
+  <si>
+    <t>Was the minister kind?</t>
+  </si>
+  <si>
+    <t>Have I always hated animals?</t>
+  </si>
+  <si>
+    <t>Was there a golf champtionship?</t>
+  </si>
+  <si>
+    <t>Does Julie have a garden?</t>
+  </si>
+  <si>
+    <t>Was something stolen?</t>
+  </si>
+  <si>
+    <t>Do vegetarians have a hard time?</t>
+  </si>
+  <si>
+    <t>Did Laura hear about a divorce?</t>
+  </si>
+  <si>
+    <t>Did his mother hear what Nate said?</t>
+  </si>
+  <si>
+    <t>Was the worker carrying barrels?</t>
+  </si>
+  <si>
+    <t>Did we go to the zoo?</t>
+  </si>
+  <si>
+    <t>Do I have everything I need in order to leave?</t>
+  </si>
+  <si>
+    <t>Does Sarah only buy meat?</t>
+  </si>
+  <si>
+    <t>Were my cousins weak?</t>
+  </si>
+  <si>
+    <t>Did Martha go to the pet store?</t>
+  </si>
+  <si>
+    <t>Did Peter go to the conference last year?</t>
+  </si>
+  <si>
+    <t>Was the pirate stranded for a year?</t>
+  </si>
+  <si>
+    <t>Were some of my grandparents teachers?</t>
+  </si>
+  <si>
+    <t>Was I dreaming?</t>
+  </si>
+  <si>
+    <t>Was Jenny interested in kittens?</t>
+  </si>
+  <si>
+    <t>Is Maria stressed?</t>
+  </si>
+  <si>
+    <t>Did Irena have trouble with vowels?</t>
+  </si>
+  <si>
+    <t>Were Sarah's friends alright?</t>
+  </si>
+  <si>
+    <t>Did the couple wear green?</t>
+  </si>
+  <si>
+    <t>Were the regulations confusing?</t>
+  </si>
+  <si>
+    <t>Did a jester enter the room?</t>
+  </si>
+  <si>
+    <t>Did Peter study what happened in Ancient Greece?</t>
+  </si>
+  <si>
+    <t>Do I like to always wear the same thing?</t>
+  </si>
+  <si>
+    <t>Was the restaurant fancy?</t>
+  </si>
+  <si>
+    <t>Does George always bring hot chocolate when he goes camping?</t>
+  </si>
+  <si>
+    <t>Was the broker originally unaware of what he did?</t>
+  </si>
+  <si>
+    <t>Do most university have programs about law?</t>
+  </si>
+  <si>
+    <t>Are ocean weather patterns hard to predict?</t>
+  </si>
+  <si>
+    <t>Did I receive advice from my aunt?</t>
+  </si>
+  <si>
+    <t>Did Clarissa see a painting?</t>
+  </si>
+  <si>
+    <t>Does Blake enjoy watching the news?</t>
+  </si>
+  <si>
+    <t>Was there a storm?</t>
+  </si>
+  <si>
+    <t>Does Caleb work with eBay professionally?</t>
+  </si>
+  <si>
+    <t>Was there tension during the election season?</t>
+  </si>
+  <si>
+    <t>Did the anthropologist study dinosaurs?</t>
+  </si>
+  <si>
+    <t>Does Paul read the news?</t>
+  </si>
+  <si>
+    <t>Was there a dog in the barn?</t>
+  </si>
+  <si>
+    <t>Did Brian take a class on business skills?</t>
+  </si>
+  <si>
+    <t>Is it easy to teach children morals?</t>
+  </si>
+  <si>
+    <t>Was there something to eat at the reception?</t>
+  </si>
+  <si>
+    <t>Was the couple celebrating their anniversary?</t>
+  </si>
+  <si>
+    <t>Did the clerk help Melissa complete the form?</t>
+  </si>
+  <si>
+    <t>Does Mark want to change jobs?</t>
+  </si>
+  <si>
+    <t>Do some children have trouble with eating utensils?</t>
+  </si>
+  <si>
+    <t>Does Hunter like the standard color scheme?</t>
+  </si>
+  <si>
+    <t>Do I enjoy going home?</t>
+  </si>
+  <si>
+    <t>Do soccer players practice running sideways?</t>
+  </si>
+  <si>
+    <t>Does yoga improve your strength?</t>
+  </si>
+  <si>
+    <t>Did Jesse get an A?</t>
+  </si>
+  <si>
+    <t>Do you sometimes need to learn by trying things?</t>
+  </si>
+  <si>
+    <t>Did the economist study oil companies?</t>
+  </si>
+  <si>
+    <t>Does history help us understand humanity?</t>
+  </si>
+  <si>
+    <t>Did Diane write a book about living in Paris?</t>
+  </si>
+  <si>
+    <t>Does Heather have a holiday party every year?</t>
+  </si>
+  <si>
+    <t>Did Jen think that some of her classmates were untalented?</t>
+  </si>
+  <si>
+    <t>Does Seth like to follow current events?</t>
+  </si>
+  <si>
+    <t>Can studying plant life tell you everything you need to know about an ecosystem?</t>
+  </si>
+  <si>
+    <t>Do some children enjoy reading more than others?</t>
+  </si>
+  <si>
+    <t>Were the walls dull?</t>
   </si>
 </sst>
 </file>
@@ -880,8 +1132,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -911,11 +1173,21 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1245,524 +1517,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C42" sqref="C1:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="1" max="2" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="112.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49" thickBot="1">
+    <row r="1" spans="1:5" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <f>CONCATENATE("\item ",A1)</f>
         <v>\item He was \textbf{abashed} and \textbf{sorry} about his horrible behavior.</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" thickBot="1">
+      <c r="E1" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",B1,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did he defend his behavior?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C42" si="0">CONCATENATE("\item ",A2)</f>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D42" si="0">CONCATENATE("\item ",A2)</f>
         <v>\item This bar is popular among the \textbf{actresses} and \textbf{lumberjacks} who live in the neighborhood.</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="49" thickBot="1">
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E42" si="1">CONCATENATE("\begin{itemize} \item ",B2,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do the lumberjacks hate the bar?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="49" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>\item Because Jim was \textbf{allergic} and \textbf{unaccustomed} to elderberries, he was careful to avoid them.</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" thickBot="1">
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did Jim like to eat elderberries?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>\item My cousin's new talking and singing toy is \textbf{annoying} and \textbf{teal} according to my aunt.</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="49" thickBot="1">
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Does my cousin have a new toy?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>\item The dentist told Sally that \textbf{bacteria} and \textbf{candy} would rot her teeth.</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" thickBot="1">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did the dentist recommend eating candy?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>\item The elephants at the zoo were \textbf{beautiful} and \textbf{stinky} so the children loved them.</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" thickBot="1">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Were there elephants at the zoo?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>\item The engineer specialized in making \textbf{bicycles} and \textbf{robots} when he worked for the company.</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" thickBot="1">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did the engineer specialize in destroying things?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>\item There were many \textbf{bishops} and \textbf{seamstresses} in the small town where I grew up.</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="49" thickBot="1">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did I grow up in a small town?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>\item The berries were \textbf{bitter} and \textbf{purple} when I ate them this morning.</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" thickBot="1">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did I eat berries this morning?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>\item Seth told me that there are \textbf{blankets} and \textbf{kittens} in that box over there.</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" thickBot="1">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Were there blankets in the box?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>\item The rangers seemed to act like \textbf{campfires} and \textbf{wildfires} were the same thing.</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="49" thickBot="1">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did I hear about fires from a policeman?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>\item At the wizard school, \textbf{chanting} and \textbf{enchanting} were very common occurrences.</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" thickBot="1">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did the wizards ride broomsticks frequently?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>\item When I met many \textbf{chauffeurs} and \textbf{stewardesses} at a party, I started questioning my job.</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" thickBot="1">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did I go to a party?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="33" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>\item The third grade class saw \textbf{cherries} and \textbf{llamas} at the state fair.</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="33" thickBot="1">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did the class go to the state fair?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>\item There was nothing but \textbf{chickens} and \textbf{fences} in the field behind the house.</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="33" thickBot="1">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was the field behind the house?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="49" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>\item His uncles were all \textbf{coroners} and \textbf{senators} in their day jobs, but they all wanted to get into the movie industry.</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="33" thickBot="1">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did he have uncles?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>\item The drink flavored with \textbf{currant} and \textbf{pomegranate} was delicious according to Kim.</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="33" thickBot="1">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did Kim like the drink?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>\item The dictator was \textbf{deposed} and \textbf{murdered} by his military adviser.</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="33" thickBot="1">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did the dictator survive?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="49" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>\item I talked with my boss about whether to hire the \textbf{determined} and \textbf{forgettable} job candidate that we interviewed.</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="33" thickBot="1">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did I discuss something with my boss?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>\item The doctor said that \textbf{discontent} and \textbf{tearfulness} are signs of depression.</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="33" thickBot="1">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did the doctor talk about flu symptoms?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="33" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>\item Luke always looked so \textbf{disheveled} and \textbf{dreary} but he was my best friend.</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="33" thickBot="1">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was Luke my best friend?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>\item The kind minister \textbf{donates} and \textbf{provides} a lot of food to the charity.</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="49" thickBot="1">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was the minister kind?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>\item My favorite animals have been \textbf{felines} and \textbf{quails} ever since I was a kid.</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="49" thickBot="1">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Have I always hated animals?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="49" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>\item The finalists in the tennis championship were ranked \textbf{first} and \textbf{ninety-eighth} in the world prior to the tournament.</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="33" thickBot="1">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was there a golf champtionship?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>\item In the spring, Julie will plant \textbf{flowers} and \textbf{zinnias} in her new garden.</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="49" thickBot="1">
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Does Julie have a garden?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>\item The store owner was \textbf{fuming} and \textbf{mad} when he found out what was stolen.</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="33" thickBot="1">
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was something stolen?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>\item As a vegetarian, \textbf{gelatin} and \textbf{lard} are difficult to avoid.</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="33" thickBot="1">
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Do vegetarians have a hard time?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="49" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>\item Laura heard that the school's \textbf{groundskeeper} and \textbf{superintendent} got married over the summer.</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="33" thickBot="1">
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did Laura hear about a divorce?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>\item His mother didn't hear when when Nate \textbf{happily} and \textbf{rudely} told his sister to shut up.</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="33" thickBot="1">
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did his mother hear what Nate said?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="49" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>\item As Joe carried a tall stack of boxes, he had to \textbf{hesitate} and \textbf{readjust} before he could go further.</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="49" thickBot="1">
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was the worker carrying barrels?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>\item At the zoo we saw \textbf{horses} and \textbf{loons} in their natural habitats.</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="33" thickBot="1">
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did we go to the zoo?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>\item I need to grab my \textbf{jacket} and \textbf{phone} before I leave the house.</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="33" thickBot="1">
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Do I have everything I need in order to leave?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>\item Sarah likes to buy \textbf{kale} and \textbf{vegetables} at the famer's market.</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="33" thickBot="1">
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Does Sarah only buy meat?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="33" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>\item My cousins were all \textbf{lankier} and \textbf{lanky} but were surprisingly strong.</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="33" thickBot="1">
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Were my cousins weak?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>\item The pet store was full of \textbf{litter} and \textbf{newts} when Martha visited on Saturday.</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="33" thickBot="1">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did Martha go to the pet store?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="49" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>\item Peter met a man who was \textbf{masculine} and \textbf{undignified} at the conference he went to last month.</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="33" thickBot="1">
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did Peter go to the conference last year?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="33" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>\item The pirate was \textbf{missing} and \textbf{marooned} for nearly five months.</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="33" thickBot="1">
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was the pirate stranded for a year?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="33" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>\item My grandparents were all \textbf{nurses} and \textbf{patriarchs} when they were alive.</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="33" thickBot="1">
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Were some of my grandparents teachers?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>\item In my dream, I had \textbf{puppies} and \textbf{tigers} that I kept as pets.</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="33" thickBot="1">
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was I dreaming?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>\item Jenny was interested in \textbf{rats} and \textbf{sharks} as a young child.</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="33" thickBot="1">
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Was Jenny interested in kittens?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C41" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>\item Maria could use \textbf{therapy} and \textbf{vacations} to feel less stressed.</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="33" thickBot="1">
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Is Maria stressed?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="33" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C42" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>\item Irena had trouble with \textbf{vocabulary} and \textbf{vowels} while she was learning English.</v>
       </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>\begin{itemize} \item Did Irena have trouble with vowels?\end{itemize}</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B42">
-    <sortCondition ref="B1:B42"/>
+  <sortState ref="A1:C42">
+    <sortCondition ref="C1:C42"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1776,15 +2343,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H42"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="113" thickBot="1">
+    <row r="1" spans="1:11" ht="113" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1809,1272 +2379,1692 @@
         <f>IF(E1,D1,C1)</f>
         <v>well</v>
       </c>
-      <c r="H1" t="str">
+      <c r="H1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" t="str">
         <f>CONCATENATE("\item ",A1," \textbf{",F1,"} and \textbf{",G1,"} ",B1)</f>
         <v>\item Sarah was relieved to find that her friends were \textbf{alive} and \textbf{well} after the car crash.</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="81" thickBot="1">
+      <c r="K1" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I1,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Were Sarah's friends alright?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="81" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="b">
+        <f>C2&lt;=D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(E2,C2,D2)</f>
+        <v>arts</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(E2,D2,C2)</f>
+        <v>sciences</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE("\item ",A2," \textbf{",F2,"} and \textbf{",G2,"} ",B2)</f>
+        <v>\item Most universities have programs in the \textbf{arts} and \textbf{sciences} in addition to having various professional schools.</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I2,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do most university have programs about law?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="81" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="b">
+        <f>C3&lt;=D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(E3,C3,D3)</f>
+        <v>backwards</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(E3,D3,C3)</f>
+        <v>forwards</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE("\item ",A3," \textbf{",F3,"} and \textbf{",G3,"} ",B3)</f>
+        <v>\item Soccer players practice running both \textbf{backwards} and \textbf{forwards} in order to stay nimble.</v>
+      </c>
+      <c r="K3" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I3,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do soccer players practice running sideways?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="65" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="b">
+        <f>C4&lt;=D4</f>
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(E4,C4,D4)</f>
+        <v>black</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(E4,D4,C4)</f>
+        <v>white</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE("\item ",A4," \textbf{",F4,"} and \textbf{",G4,"} ",B4)</f>
+        <v>\item Hunter dislikes reading \textbf{black} and \textbf{white} text off a computer screen so he uses an unusual color scheme.</v>
+      </c>
+      <c r="K4" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I4,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Hunter like the standard color scheme?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="97" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="b">
+        <f>C5&lt;=D5</f>
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(E5,C5,D5)</f>
+        <v>bread</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(E5,D5,C5)</f>
+        <v>butter</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" t="str">
+        <f>CONCATENATE("\item ",A5," \textbf{",F5,"} and \textbf{",G5,"} ",B5)</f>
+        <v>\item George always brings \textbf{bread} and \textbf{butter} with him when he goes camping.</v>
+      </c>
+      <c r="K5" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I5,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does George always bring hot chocolate when he goes camping?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="81" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E2" t="b">
-        <f t="shared" ref="E2:E42" si="0">C2&lt;=D2</f>
+      <c r="E6" t="b">
+        <f>C6&lt;=D6</f>
         <v>1</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F42" si="1">IF(E2,C2,D2)</f>
+      <c r="F6" t="str">
+        <f>IF(E6,C6,D6)</f>
         <v>bride</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G42" si="2">IF(E2,D2,C2)</f>
+      <c r="G6" t="str">
+        <f>IF(E6,D6,C6)</f>
         <v>groom</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H42" si="3">CONCATENATE("\item ",A2," \textbf{",F2,"} and \textbf{",G2,"} ",B2)</f>
+      <c r="H6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J6" t="str">
+        <f>CONCATENATE("\item ",A6," \textbf{",F6,"} and \textbf{",G6,"} ",B6)</f>
         <v>\item John showed me pictures of the \textbf{bride} and \textbf{groom} both dressed in blue.</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="K6" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I6,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did the couple wear green?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="65" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" t="b">
+        <f>C7&lt;=D7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(E7,C7,D7)</f>
+        <v>brothers</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(E7,D7,C7)</f>
+        <v>sisters</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" t="str">
+        <f>CONCATENATE("\item ",A7," \textbf{",F7,"} and \textbf{",G7,"} ",B7)</f>
+        <v>\item I always love seeing my \textbf{brothers} and \textbf{sisters} when I go home for the holidays.</v>
+      </c>
+      <c r="K7" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I7,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do I enjoy going home?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="129" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="b">
+        <f>C8&lt;=D8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(E8,C8,D8)</f>
+        <v>buy</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(E8,D8,C8)</f>
+        <v>sell</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" t="str">
+        <f>CONCATENATE("\item ",A8," \textbf{",F8,"} and \textbf{",G8,"} ",B8)</f>
+        <v>\item Caleb likes to \textbf{buy} and \textbf{sell} electronics on eBay as a hobby.</v>
+      </c>
+      <c r="K8" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I8,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Caleb work with eBay professionally?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="97" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="b">
+        <f>C9&lt;=D9</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(E9,C9,D9)</f>
+        <v>cat</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(E9,D9,C9)</f>
+        <v>mouse</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J9" t="str">
+        <f>CONCATENATE("\item ",A9," \textbf{",F9,"} and \textbf{",G9,"} ",B9)</f>
+        <v>\item I watched the \textbf{cat} and \textbf{mouse} run frantically around the barn.</v>
+      </c>
+      <c r="K9" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I9,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was there a dog in the barn?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="113" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" t="b">
+        <f>C10&lt;=D10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(E10,C10,D10)</f>
+        <v>cause</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(E10,D10,C10)</f>
+        <v>effect</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" t="str">
+        <f>CONCATENATE("\item ",A10," \textbf{",F10,"} and \textbf{",G10,"} ",B10)</f>
+        <v>\item It can be difficult to determine the \textbf{cause} and \textbf{effect} of weather patterns over the ocean.</v>
+      </c>
+      <c r="K10" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I10,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Are ocean weather patterns hard to predict?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="97" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" t="b">
+        <f>C11&lt;=D11</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(E11,C11,D11)</f>
+        <v>church</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(E11,D11,C11)</f>
+        <v>state</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" t="str">
+        <f>CONCATENATE("\item ",A11," \textbf{",F11,"} and \textbf{",G11,"} ",B11)</f>
+        <v>\item Catherine was not surprised that tensions between \textbf{church} and \textbf{state} ran high during the election season.</v>
+      </c>
+      <c r="K11" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I11,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was there tension during the election season?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="97" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="b">
+        <f>C12&lt;=D12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(E12,C12,D12)</f>
+        <v>crime</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(E12,D12,C12)</f>
+        <v>punishment</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" t="str">
+        <f>CONCATENATE("\item ",A12," \textbf{",F12,"} and \textbf{",G12,"} ",B12)</f>
+        <v>\item Peter studied the laws concerning \textbf{crime} and \textbf{punishment} in Ancient Greece and Rome.</v>
+      </c>
+      <c r="K12" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I12,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did Peter study what happened in Ancient Greece?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="65" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="b">
+        <f>C13&lt;=D13</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(E13,C13,D13)</f>
+        <v>day</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(E13,D13,C13)</f>
+        <v>night</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J13" t="str">
+        <f>CONCATENATE("\item ",A13," \textbf{",F13,"} and \textbf{",G13,"} ",B13)</f>
+        <v>\item Jesse felt like he had worked \textbf{day} and \textbf{night} on the project but he only got a B on it.</v>
+      </c>
+      <c r="K13" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I13,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did Jesse get an A?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="97" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" t="b">
+        <f>C14&lt;=D14</f>
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(E14,C14,D14)</f>
+        <v>east</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(E14,D14,C14)</f>
+        <v>west</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14" t="str">
+        <f>CONCATENATE("\item ",A14," \textbf{",F14,"} and \textbf{",G14,"} ",B14)</f>
+        <v>\item Diane wrote a book about her travels \textbf{east} and \textbf{west} around the globe for a year.</v>
+      </c>
+      <c r="K14" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I14,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did Diane write a book about living in Paris?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="129" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" t="b">
+        <f>C15&lt;=D15</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(E15,C15,D15)</f>
+        <v>family</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(E15,D15,C15)</f>
+        <v>friends</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J15" t="str">
+        <f>CONCATENATE("\item ",A15," \textbf{",F15,"} and \textbf{",G15,"} ",B15)</f>
+        <v>\item Heather invited her \textbf{family} and \textbf{friends} to her annual holiday party.</v>
+      </c>
+      <c r="K15" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I15,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Heather have a holiday party every year?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="97" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" t="b">
+        <f>C16&lt;=D16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(E16,C16,D16)</f>
+        <v>fauna</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(E16,D16,C16)</f>
+        <v>flora</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J16" t="str">
+        <f>CONCATENATE("\item ",A16," \textbf{",F16,"} and \textbf{",G16,"} ",B16)</f>
+        <v>\item It is important to study both the \textbf{fauna} and \textbf{flora} in a region in order to fully understand the ecosystem.</v>
+      </c>
+      <c r="K16" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I16,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Can studying plant life tell you everything you need to know about an ecosystem?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="97" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" t="b">
+        <f>C17&lt;=D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(E17,C17,D17)</f>
+        <v>drink</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(E17,D17,C17)</f>
+        <v>food</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J17" t="str">
+        <f>CONCATENATE("\item ",A17," \textbf{",F17,"} and \textbf{",G17,"} ",B17)</f>
+        <v>\item Although some \textbf{drink} and \textbf{food} were provided at the reception, there was not enough to go around.</v>
+      </c>
+      <c r="K17" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I17,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was there something to eat at the reception?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="145" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" t="b">
+        <f>C18&lt;=D18</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(E18,C18,D18)</f>
+        <v>gold</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(E18,D18,C18)</f>
+        <v>silver</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18" t="str">
+        <f>CONCATENATE("\item ",A18," \textbf{",F18,"} and \textbf{",G18,"} ",B18)</f>
+        <v>\item Keith marveled at the \textbf{gold} and \textbf{silver} decorations on the walls of the palace.</v>
+      </c>
+      <c r="K18" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I18,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Were the walls dull?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="81" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="b">
+        <f>C19&lt;=D19</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(E19,C19,D19)</f>
+        <v>heart</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(E19,D19,C19)</f>
+        <v>soul</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19" t="str">
+        <f>CONCATENATE("\item ",A19," \textbf{",F19,"} and \textbf{",G19,"} ",B19)</f>
+        <v>\item Excercising regularly is important for your \textbf{heart} and \textbf{soul} according to my mother.</v>
+      </c>
+      <c r="K19" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I19,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did I receive advice from my aunt?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="65" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" t="b">
+        <f>C20&lt;=D20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(E20,C20,D20)</f>
+        <v>husband</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(E20,D20,C20)</f>
+        <v>wife</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J20" t="str">
+        <f>CONCATENATE("\item ",A20," \textbf{",F20,"} and \textbf{",G20,"} ",B20)</f>
+        <v>\item Michelle was surprised to learn that the \textbf{husband} and \textbf{wife} were getting a divorce.</v>
+      </c>
+      <c r="K20" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I20,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was the couple celebrating their anniversary?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="97" thickBot="1">
+      <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E3" t="b">
-        <f t="shared" si="0"/>
+      <c r="E21" t="b">
+        <f>C21&lt;=D21</f>
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" si="1"/>
+      <c r="F21" t="str">
+        <f>IF(E21,C21,D21)</f>
         <v>intents</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" si="2"/>
+      <c r="G21" t="str">
+        <f>IF(E21,D21,C21)</f>
         <v>purposes</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" si="3"/>
+      <c r="H21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" t="str">
+        <f>CONCATENATE("\item ",A21," \textbf{",F21,"} and \textbf{",G21,"} ",B21)</f>
         <v>\item I could not guess the \textbf{intents} and \textbf{purposes} of the confusing new regulations.</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="65" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="K21" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I21,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Were the regulations confusing?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="65" thickBot="1">
+      <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E4" t="b">
-        <f t="shared" si="0"/>
+      <c r="E22" t="b">
+        <f>C22&lt;=D22</f>
         <v>1</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F22" t="str">
+        <f>IF(E22,C22,D22)</f>
         <v>king</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="2"/>
+      <c r="G22" t="str">
+        <f>IF(E22,D22,C22)</f>
         <v>queen</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="3"/>
+      <c r="H22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J22" t="str">
+        <f>CONCATENATE("\item ",A22," \textbf{",F22,"} and \textbf{",G22,"} ",B22)</f>
         <v>\item Everyone bowed as the \textbf{king} and \textbf{queen} entered the throne room.</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="b">
-        <f t="shared" si="0"/>
+      <c r="K22" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I22,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did a jester enter the room?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="145" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="b">
+        <f>C23&lt;=D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(E23,C23,D23)</f>
+        <v>fork</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(E23,D23,C23)</f>
+        <v>knife</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J23" t="str">
+        <f>CONCATENATE("\item ",A23," \textbf{",F23,"} and \textbf{",G23,"} ",B23)</f>
+        <v>\item Many children find eating with a \textbf{fork} and \textbf{knife} to be a difficult skill to learn.</v>
+      </c>
+      <c r="K23" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I23,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do some children have trouble with eating utensils?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="97" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="b">
+        <f>C24&lt;=D24</f>
         <v>1</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>crime</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>punishment</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Peter studied the laws concerning \textbf{crime} and \textbf{punishment} in Ancient Greece and Rome.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="81" thickBot="1">
-      <c r="A6" s="1" t="s">
+      <c r="F24" t="str">
+        <f>IF(E24,C24,D24)</f>
+        <v>men</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(E24,D24,C24)</f>
+        <v>women</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J24" t="str">
+        <f>CONCATENATE("\item ",A24," \textbf{",F24,"} and \textbf{",G24,"} ",B24)</f>
+        <v>\item Jen thought that the \textbf{men} and \textbf{women} in her dance class were all very talented.</v>
+      </c>
+      <c r="K24" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I24,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did Jen think that some of her classmates were untalented?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="81" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" t="b">
+        <f>C25&lt;=D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(E25,C25,D25)</f>
+        <v>body</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(E25,D25,C25)</f>
+        <v>mind</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" t="str">
+        <f>CONCATENATE("\item ",A25," \textbf{",F25,"} and \textbf{",G25,"} ",B25)</f>
+        <v>\item Learning to strengthen your \textbf{body} and \textbf{mind} is one of main purposes of doing yoga.</v>
+      </c>
+      <c r="K25" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I25,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does yoga improve your strength?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="113" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E6" t="b">
-        <f t="shared" si="0"/>
+      <c r="E26" t="b">
+        <f>C26&lt;=D26</f>
         <v>0</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F26" t="str">
+        <f>IF(E26,C26,D26)</f>
         <v>match</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="2"/>
+      <c r="G26" t="str">
+        <f>IF(E26,D26,C26)</f>
         <v>mix</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="3"/>
+      <c r="H26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J26" t="str">
+        <f>CONCATENATE("\item ",A26," \textbf{",F26,"} and \textbf{",G26,"} ",B26)</f>
         <v>\item I like to \textbf{match} and \textbf{mix} my clothing to create new outfits.</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="65" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="K26" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I26,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do I like to always wear the same thing?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="113" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" t="b">
+        <f>C27&lt;=D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(E27,C27,D27)</f>
+        <v>child</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(E27,D27,C27)</f>
+        <v>mother</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J27" t="str">
+        <f>CONCATENATE("\item ",A27," \textbf{",F27,"} and \textbf{",G27,"} ",B27)</f>
+        <v>\item Clarissa found the painting of a \textbf{child} and \textbf{mother} to be very moving.</v>
+      </c>
+      <c r="K27" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I27,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did Clarissa see a painting?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="129" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" t="b">
+        <f>C28&lt;=D28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(E28,C28,D28)</f>
+        <v>address</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(E28,D28,C28)</f>
+        <v>name</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J28" t="str">
+        <f>CONCATENATE("\item ",A28," \textbf{",F28,"} and \textbf{",G28,"} ",B28)</f>
+        <v>\item The clerk asked for Melissa's \textbf{address} and \textbf{name} in order to complete the form.</v>
+      </c>
+      <c r="K28" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I28,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did the clerk help Melissa complete the form?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="65" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="b">
+        <f>C29&lt;=D29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(E29,C29,D29)</f>
+        <v>magazines</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(E29,D29,C29)</f>
+        <v>newspapers</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J29" t="str">
+        <f>CONCATENATE("\item ",A29," \textbf{",F29,"} and \textbf{",G29,"} ",B29)</f>
+        <v>\item Paul primarily got his news through \textbf{magazines} and \textbf{newspapers} rather than through television.</v>
+      </c>
+      <c r="K29" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I29,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Paul read the news?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="113" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="b">
+        <f>C30&lt;=D30</f>
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(E30,C30,D30)</f>
+        <v>pain</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(E30,D30,C30)</f>
+        <v>suffering</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J30" t="str">
+        <f>CONCATENATE("\item ",A30," \textbf{",F30,"} and \textbf{",G30,"} ",B30)</f>
+        <v>\item Blake dislikes seeing all the \textbf{pain} and \textbf{suffering} in the world when he watches the news.</v>
+      </c>
+      <c r="K30" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I30,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Blake enjoy watching the news?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="81" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="b">
+        <f>C31&lt;=D31</f>
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(E31,C31,D31)</f>
+        <v>past</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(E31,D31,C31)</f>
+        <v>present</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" t="str">
+        <f>CONCATENATE("\item ",A31," \textbf{",F31,"} and \textbf{",G31,"} ",B31)</f>
+        <v>\item By comparing the \textbf{past} and \textbf{present} we can learn about universal human tendencies.</v>
+      </c>
+      <c r="K31" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I31,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does history help us understand humanity?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="81" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" t="b">
+        <f>C32&lt;=D32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(E32,C32,D32)</f>
+        <v>loss</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(E32,D32,C32)</f>
+        <v>profit</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J32" t="str">
+        <f>CONCATENATE("\item ",A32," \textbf{",F32,"} and \textbf{",G32,"} ",B32)</f>
+        <v>\item Learning to forecast \textbf{loss} and \textbf{profit} was a topic in Brian's business skills class.</v>
+      </c>
+      <c r="K32" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I32,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did Brian take a class on business skills?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="97" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" t="b">
+        <f>C33&lt;=D33</f>
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(E33,C33,D33)</f>
+        <v>radio</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(E33,D33,C33)</f>
+        <v>television</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J33" t="str">
+        <f>CONCATENATE("\item ",A33," \textbf{",F33,"} and \textbf{",G33,"} ",B33)</f>
+        <v>\item Seth follows both \textbf{radio} and \textbf{television} broadcasts to stay informed about current events.</v>
+      </c>
+      <c r="K33" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I33,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Seth like to follow current events?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="113" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" t="b">
+        <f>C34&lt;=D34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(E34,C34,D34)</f>
+        <v>read</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(E34,D34,C34)</f>
+        <v>write</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J34" t="str">
+        <f>CONCATENATE("\item ",A34," \textbf{",F34,"} and \textbf{",G34,"} ",B34)</f>
+        <v>\item Some children enjoy learning to \textbf{read} and \textbf{write} but others dislike it.</v>
+      </c>
+      <c r="K34" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I34,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do some children enjoy reading more than others?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="113" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" t="b">
+        <f>C35&lt;=D35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(E35,C35,D35)</f>
+        <v>development</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(E35,D35,C35)</f>
+        <v>research</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="str">
+        <f>CONCATENATE("\item ",A35," \textbf{",F35,"} and \textbf{",G35,"} ",B35)</f>
+        <v>\item Mark finds working on \textbf{development} and \textbf{research} for the marketing company to be a very satisfying career.</v>
+      </c>
+      <c r="K35" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I35,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Does Mark want to change jobs?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="97" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" t="b">
+        <f>C36&lt;=D36</f>
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(E36,C36,D36)</f>
+        <v>right</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(E36,D36,C36)</f>
+        <v>wrong</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="str">
+        <f>CONCATENATE("\item ",A36," \textbf{",F36,"} and \textbf{",G36,"} ",B36)</f>
+        <v>\item Teaching children what is \textbf{right} and \textbf{wrong} is a difficult task for parents.</v>
+      </c>
+      <c r="K36" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I36,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Is it easy to teach children morals?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="113" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" t="b">
+        <f>C37&lt;=D37</f>
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(E37,C37,D37)</f>
+        <v>safe</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(E37,D37,C37)</f>
+        <v>sound</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="str">
+        <f>CONCATENATE("\item ",A37," \textbf{",F37,"} and \textbf{",G37,"} ",B37)</f>
+        <v>\item After the storm, Haley was glad to hear that her grandparents were \textbf{safe} and \textbf{sound} in their country home.</v>
+      </c>
+      <c r="K37" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I37,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was there a storm?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="129" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="b">
+        <f>C38&lt;=D38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(E38,C38,D38)</f>
+        <v>shares</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(E38,D38,C38)</f>
+        <v>stocks</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="str">
+        <f>CONCATENATE("\item ",A38," \textbf{",F38,"} and \textbf{",G38,"} ",B38)</f>
+        <v>\item The broker bought some risky \textbf{shares} and \textbf{stocks} without knowing it and only discovered it later.</v>
+      </c>
+      <c r="K38" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I38,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was the broker originally unaware of what he did?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="97" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" t="b">
+        <f>C39&lt;=D39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(E39,C39,D39)</f>
+        <v>demand</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(E39,D39,C39)</f>
+        <v>supply</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="str">
+        <f>CONCATENATE("\item ",A39," \textbf{",F39,"} and \textbf{",G39,"} ",B39)</f>
+        <v>\item The economist became famous for studying the way \textbf{demand} and \textbf{supply} affect the steel industry.</v>
+      </c>
+      <c r="K39" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I39,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did the economist study oil companies?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="177" thickBot="1">
+      <c r="A40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E7" t="b">
-        <f t="shared" si="0"/>
+      <c r="E40" t="b">
+        <f>C40&lt;=D40</f>
         <v>0</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
+      <c r="F40" t="str">
+        <f>IF(E40,C40,D40)</f>
         <v>sour</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
+      <c r="G40" t="str">
+        <f>IF(E40,D40,C40)</f>
         <v>sweet</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="str">
+        <f>CONCATENATE("\item ",A40," \textbf{",F40,"} and \textbf{",G40,"} ",B40)</f>
         <v>\item Susan disliked the \textbf{sour} and \textbf{sweet} soup at the fancy restaurant.</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="65" thickBot="1">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>bread</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>butter</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="3"/>
-        <v>\item George always brings \textbf{bread} and \textbf{butter} with him when he goes camping.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="81" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" t="b">
-        <f t="shared" si="0"/>
+      <c r="K40" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I40,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Was the restaurant fancy?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="113" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="b">
+        <f>C41&lt;=D41</f>
         <v>0</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>shares</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>stocks</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="3"/>
-        <v>\item The broker bought some risky \textbf{shares} and \textbf{stocks} without knowing it and only discovered it later.</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="113" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>arts</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>sciences</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Most universities have programs in the \textbf{arts} and \textbf{sciences} in addition to having various professional schools.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="81" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>cause</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>effect</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="3"/>
-        <v>\item It can be difficult to determine the \textbf{cause} and \textbf{effect} of weather patterns over the ocean.</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="97" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>heart</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>soul</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Excercising regularly is important for your \textbf{heart} and \textbf{soul} according to my mother.</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="65" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" t="b">
-        <f t="shared" si="0"/>
+      <c r="F41" t="str">
+        <f>IF(E41,C41,D41)</f>
+        <v>error</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(E41,D41,C41)</f>
+        <v>trial</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="str">
+        <f>CONCATENATE("\item ",A41," \textbf{",F41,"} and \textbf{",G41,"} ",B41)</f>
+        <v>\item Sometimes it feels like \textbf{error} and \textbf{trial} is the only way to learn.</v>
+      </c>
+      <c r="K41" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I41,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Do you sometimes need to learn by trying things?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="81" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" t="b">
+        <f>C42&lt;=D42</f>
         <v>0</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>child</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>mother</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Clarissa found the painting of a \textbf{child} and \textbf{mother} to be very moving.</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="81" thickBot="1">
-      <c r="A14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>pain</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>suffering</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Blake dislikes seeing all the \textbf{pain} and \textbf{suffering} in the world when he watches the news.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="129" thickBot="1">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>safe</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>sound</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="3"/>
-        <v>\item After the storm, Haley was glad to hear that her grandparents were \textbf{safe} and \textbf{sound} in their country home.</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="65" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>buy</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>sell</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Caleb likes to \textbf{buy} and \textbf{sell} electronics on eBay as a hobby.</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="97" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>church</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>state</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Catherine was not surprised that tensions between \textbf{church} and \textbf{state} ran high during the election season.</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="145" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="F42" t="str">
+        <f>IF(E42,C42,D42)</f>
+        <v>peace</v>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(E42,D42,C42)</f>
+        <v>war</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>peace</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>war</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="3"/>
+      <c r="I42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J42" t="str">
+        <f>CONCATENATE("\item ",A42," \textbf{",F42,"} and \textbf{",G42,"} ",B42)</f>
         <v>\item The anthropologist studied the way different cultures conceived of \textbf{peace} and \textbf{war} during the Middle Ages.</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="81" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>magazines</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>newspapers</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Paul primarily got his news through \textbf{magazines} and \textbf{newspapers} rather than through television.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="65" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>cat</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>mouse</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v>\item I watched the \textbf{cat} and \textbf{mouse} run frantically around the barn.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="97" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>loss</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>profit</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Learning to forecast \textbf{loss} and \textbf{profit} was a topic in Brian's business skills class.</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="65" thickBot="1">
-      <c r="A22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>right</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>wrong</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Teaching children what is \textbf{right} and \textbf{wrong} is a difficult task for parents.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="145" thickBot="1">
-      <c r="A23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>drink</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>food</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Although some \textbf{drink} and \textbf{food} were provided at the reception, there was not enough to go around.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="81" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>husband</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>wife</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Michelle was surprised to learn that the \textbf{husband} and \textbf{wife} were getting a divorce.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="65" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>address</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>name</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="3"/>
-        <v>\item The clerk asked for Melissa's \textbf{address} and \textbf{name} in order to complete the form.</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="113" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>development</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>research</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Mark finds working on \textbf{development} and \textbf{research} for the marketing company to be a very satisfying career.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="81" thickBot="1">
-      <c r="A27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>fork</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v>knife</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Many children find eating with a \textbf{fork} and \textbf{knife} to be a difficult skill to learn.</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="129" thickBot="1">
-      <c r="A28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>black</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>white</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Hunter dislikes reading \textbf{black} and \textbf{white} text off a computer screen so he uses an unusual color scheme.</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="65" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>brothers</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>sisters</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v>\item I always love seeing my \textbf{brothers} and \textbf{sisters} when I go home for the holidays.</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="81" thickBot="1">
-      <c r="A30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>backwards</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="2"/>
-        <v>forwards</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Soccer players practice running both \textbf{backwards} and \textbf{forwards} in order to stay nimble.</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="81" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>body</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="2"/>
-        <v>mind</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Learning to strengthen your \textbf{body} and \textbf{mind} is one of main purposes of doing yoga.</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="81" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>day</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="2"/>
-        <v>night</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Jesse felt like he had worked \textbf{day} and \textbf{night} on the project but he only got a B on it.</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="49" thickBot="1">
-      <c r="A33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v>error</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v>trial</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Sometimes it feels like \textbf{error} and \textbf{trial} is the only way to learn.</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="113" thickBot="1">
-      <c r="A34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v>demand</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="2"/>
-        <v>supply</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="3"/>
-        <v>\item The economist became famous for studying the way \textbf{demand} and \textbf{supply} affect the steel industry.</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="113" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>past</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="2"/>
-        <v>present</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="3"/>
-        <v>\item By comparing the \textbf{past} and \textbf{present} we can learn about universal human tendencies.</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="81" thickBot="1">
-      <c r="A36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>east</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="2"/>
-        <v>west</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Diane wrote a book about her travels \textbf{east} and \textbf{west} around the globe for a year.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="65" thickBot="1">
-      <c r="A37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>family</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v>friends</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Heather invited her \textbf{family} and \textbf{friends} to her annual holiday party.</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="97" thickBot="1">
-      <c r="A38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>men</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="2"/>
-        <v>women</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Jen thought that the \textbf{men} and \textbf{women} in her dance class were all very talented.</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="97" thickBot="1">
-      <c r="A39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>radio</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="2"/>
-        <v>television</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Seth follows both \textbf{radio} and \textbf{television} broadcasts to stay informed about current events.</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="129" thickBot="1">
-      <c r="A40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>fauna</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="2"/>
-        <v>flora</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="3"/>
-        <v>\item It is important to study both the \textbf{fauna} and \textbf{flora} in a region in order to fully understand the ecosystem.</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="81" thickBot="1">
-      <c r="A41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v>read</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="2"/>
-        <v>write</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Some children enjoy learning to \textbf{read} and \textbf{write} but others dislike it.</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="81" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v>gold</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="2"/>
-        <v>silver</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="3"/>
-        <v>\item Keith marveled at the \textbf{gold} and \textbf{silver} decorations on the walls of the palace.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" thickBot="1">
+      <c r="K42" t="str">
+        <f>CONCATENATE("\begin{itemize} \item ",I42,"\end{itemize}")</f>
+        <v>\begin{itemize} \item Did the anthropologist study dinosaurs?\end{itemize}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="17" thickBot="1">
+    <row r="44" spans="1:11" ht="17" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="17" thickBot="1">
+    <row r="45" spans="1:11" ht="17" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="17" thickBot="1">
+    <row r="46" spans="1:11" ht="17" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="17" thickBot="1">
+    <row r="47" spans="1:11" ht="17" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="17" thickBot="1">
+    <row r="48" spans="1:11" ht="17" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
@@ -5013,6 +6003,9 @@
       <c r="D370" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A1:K370">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
